--- a/doc/excel/干部/[sample_pcsRecommend_Candidate]两委委员名单录入样表.xlsx
+++ b/doc/excel/干部/[sample_pcsRecommend_Candidate]两委委员名单录入样表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB18D83-5642-4F10-9D61-2BD0BA9560CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB16E1B9-8F28-47D0-88BC-15EB6CE4972F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="0" windowWidth="25215" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="19935" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,22 @@
   </si>
   <si>
     <t>908999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的正式党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +500,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,8 +527,12 @@
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -530,8 +550,12 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
